--- a/individual_results/avey/342.xlsx
+++ b/individual_results/avey/342.xlsx
@@ -555,7 +555,7 @@
         <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
         <v>0.75</v>
@@ -564,7 +564,7 @@
         <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0.25</v>
@@ -609,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
         <v>0.3333333333333333</v>
@@ -682,13 +682,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +700,9 @@
       <c r="B4" t="n">
         <v>0.7499999999999999</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.2857142857142858</v>
+      </c>
       <c r="D4" t="n">
         <v>0.8571428571428571</v>
       </c>
@@ -708,13 +710,15 @@
         <v>0.7499999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="J4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -740,12 +744,14 @@
       <c r="T4" t="n">
         <v>0.5</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V4" t="n">
         <v>0.8</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +763,9 @@
       <c r="B5" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.3125</v>
+      </c>
       <c r="D5" t="n">
         <v>0.9375</v>
       </c>
@@ -765,13 +773,15 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="J5" t="n">
         <v>0.3125</v>
       </c>
@@ -797,12 +807,14 @@
       <c r="T5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.3846153846153846</v>
+      </c>
       <c r="V5" t="n">
         <v>0.7142857142857142</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.7142857142857142</v>
       </c>
     </row>
     <row r="6">
@@ -815,7 +827,7 @@
         <v>0.9508013338940989</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4702019977678391</v>
       </c>
       <c r="D6" t="n">
         <v>0.7363636171343382</v>
@@ -824,7 +836,7 @@
         <v>0.9360403422435027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0411861478520087</v>
+        <v>0.5113881456198478</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -833,7 +845,7 @@
         <v>0.7984848580994974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="J6" t="n">
         <v>0.3726262671130988</v>
@@ -869,13 +881,13 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="V6" t="n">
         <v>0.5766666455144387</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1064646477465997</v>
+        <v>0.5766666455144387</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -942,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -961,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -970,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -979,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1015,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1034,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1043,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1052,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1088,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1106,19 +1118,25 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
@@ -1140,11 +1158,15 @@
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/342.xlsx
+++ b/individual_results/avey/342.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
         <v>0.25</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M2" t="n">
         <v>0.2</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P2" t="n">
         <v>0.125</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.3333333333333333</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P3" t="n">
         <v>0.3333333333333333</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
@@ -724,22 +724,20 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="M4" t="n">
         <v>0.25</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P4" t="n">
         <v>0.1818181818181818</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.5</v>
@@ -761,7 +759,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5" t="n">
         <v>0.3125</v>
@@ -787,22 +785,20 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3125</v>
       </c>
       <c r="M5" t="n">
         <v>0.2941176470588235</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="P5" t="n">
         <v>0.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>0.3571428571428571</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.3846153846153846</v>
@@ -824,7 +820,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9508013338940989</v>
+        <v>0.9049495058460971</v>
       </c>
       <c r="C6" t="n">
         <v>0.4702019977678391</v>
@@ -863,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6678224420880012</v>
+        <v>0.5839724158686271</v>
       </c>
       <c r="P6" t="n">
         <v>0.4702019977678391</v>
@@ -872,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1018,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1091,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1151,9 +1147,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>1</v>
@@ -1203,7 +1197,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M11" t="n">
         <v>1.666666666666667</v>
